--- a/inferences/paises_totais_n.xlsx
+++ b/inferences/paises_totais_n.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Japão</t>
+          <t>Tonquim</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Tonquim</t>
+          <t>Suíça</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Suíça</t>
+          <t>Japão</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Alsácia</t>
+          <t>Europa</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Europa</t>
+          <t>Alsácia</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Coreia</t>
+          <t>Lituânia</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dalmácia</t>
+          <t>México</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lituânia</t>
+          <t>Coreia</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Inglaterra</t>
+          <t>Dalmácia</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Inglaterra</t>
         </is>
       </c>
       <c r="B26" t="n">

--- a/inferences/paises_totais_n.xlsx
+++ b/inferences/paises_totais_n.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
